--- a/BudgetTracking.xlsx
+++ b/BudgetTracking.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/76a9c772d3349517/Documents/ProjectDA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/76a9c772d3349517/Documents/click/GITHUB/Excel---Budget-Tracking/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="8_{0FDC1A0F-A1FC-4ADB-8423-3DAA7F41348A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
@@ -17,18 +17,12 @@
     <sheet name="Chart" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v2.10" hidden="1">'Analysis demo'!$B$17:$B$23</definedName>
-    <definedName name="_xlchart.v2.11" hidden="1">'Analysis demo'!$C$17:$C$23</definedName>
-    <definedName name="_xlchart.v2.12" hidden="1">'Analysis demo'!$B$17:$B$23</definedName>
-    <definedName name="_xlchart.v2.13" hidden="1">'Analysis demo'!$C$17:$C$23</definedName>
+    <definedName name="_xlchart.v2.2" hidden="1">'Analysis demo'!$B$17:$B$23</definedName>
+    <definedName name="_xlchart.v2.3" hidden="1">'Analysis demo'!$C$17:$C$23</definedName>
     <definedName name="_xlchart.v2.4" hidden="1">'Analysis demo'!$B$17:$B$23</definedName>
     <definedName name="_xlchart.v2.5" hidden="1">'Analysis demo'!$C$17:$C$23</definedName>
-    <definedName name="_xlchart.v2.8" hidden="1">'Analysis demo'!$B$17:$B$23</definedName>
-    <definedName name="_xlchart.v2.9" hidden="1">'Analysis demo'!$C$17:$C$23</definedName>
-    <definedName name="_xlchart.v5.0" hidden="1">'Analysis demo'!$E$4:$E$11</definedName>
-    <definedName name="_xlchart.v5.1" hidden="1">'Analysis demo'!$E$4:$E$9</definedName>
-    <definedName name="_xlchart.v5.2" hidden="1">'Analysis demo'!$F$4:$F$11</definedName>
-    <definedName name="_xlchart.v5.3" hidden="1">'Analysis demo'!$F$4:$F$9</definedName>
+    <definedName name="_xlchart.v5.0" hidden="1">'Analysis demo'!$E$4:$E$9</definedName>
+    <definedName name="_xlchart.v5.1" hidden="1">'Analysis demo'!$F$4:$F$9</definedName>
     <definedName name="_xlchart.v5.6" hidden="1">'Analysis demo'!$E$4:$E$9</definedName>
     <definedName name="_xlchart.v5.7" hidden="1">'Analysis demo'!$F$4:$F$9</definedName>
   </definedNames>
@@ -227,23 +221,23 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1055,10 +1049,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v5.1</cx:f>
+        <cx:f>_xlchart.v5.0</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v5.3</cx:f>
+        <cx:f>_xlchart.v5.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1174,10 +1168,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v2.4</cx:f>
+        <cx:f>_xlchart.v2.2</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v2.5</cx:f>
+        <cx:f>_xlchart.v2.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1192,7 +1186,7 @@
           <cx:dataId val="0"/>
         </cx:series>
       </cx:plotAreaRegion>
-      <cx:axis id="1">
+      <cx:axis id="0">
         <cx:catScaling gapWidth="0.0599999987"/>
         <cx:tickLabels/>
       </cx:axis>
@@ -1325,10 +1319,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v2.12</cx:f>
+        <cx:f>_xlchart.v2.4</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v2.13</cx:f>
+        <cx:f>_xlchart.v2.5</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -4843,7 +4837,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4312920" y="358140"/>
+              <a:off x="4381500" y="358140"/>
               <a:ext cx="4549140" cy="2194560"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -4921,7 +4915,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="2354580" y="2796540"/>
+              <a:off x="2423160" y="2796540"/>
               <a:ext cx="2971800" cy="2202180"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -5040,7 +5034,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="121920" y="571500"/>
+              <a:off x="121920" y="807720"/>
               <a:ext cx="4983480" cy="2506980"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -5118,7 +5112,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="6027420" y="586740"/>
+              <a:off x="6027420" y="822960"/>
               <a:ext cx="4587240" cy="2522220"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -5522,10 +5516,10 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="7"/>
+      <c r="F3" s="12"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="E4" s="4" t="s">
@@ -5569,10 +5563,10 @@
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="7">
         <f>SUM(F4:F8)</f>
         <v>176000</v>
       </c>
@@ -5590,7 +5584,7 @@
       <c r="B12" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="9">
         <f>1-C11</f>
         <v>0.375</v>
       </c>
@@ -5600,17 +5594,17 @@
       <c r="F14" s="2"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="6"/>
+      <c r="C16" s="14"/>
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B17" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="8">
         <f>SUM(C18:C23)</f>
         <v>110000</v>
       </c>
@@ -5703,16 +5697,16 @@
       <c r="K1" s="16"/>
       <c r="L1" s="16"/>
       <c r="M1" s="16"/>
-      <c r="N1" s="14"/>
+      <c r="N1" s="10"/>
     </row>
     <row r="2" spans="8:14" x14ac:dyDescent="0.3">
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
